--- a/31 Informes técnicos.xlsx
+++ b/31 Informes técnicos.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>Informes técnicos</t>
   </si>
@@ -22,34 +22,34 @@
     <t>Nombre del Grupo</t>
   </si>
   <si>
-    <t>Grupo de Trabajo Académico en Ingeniería Hidráulica y Ambiental</t>
-  </si>
-  <si>
     <t>GRUPO DE INVESTIGACIONES AMBIENTALES</t>
   </si>
   <si>
     <t>GISA</t>
   </si>
   <si>
+    <t>Grupo de Investigación en calidad del agua y modelación hídrica (GICAMH)</t>
+  </si>
+  <si>
+    <t>ECOLOGIA, INGENIERIA Y SOCIEDAD - EIS</t>
+  </si>
+  <si>
     <t>Agua y Saneamiento</t>
   </si>
   <si>
     <t>INVEMAR - Calidad Ambiental Marina</t>
   </si>
   <si>
-    <t xml:space="preserve">CAMHA/ Calidad de Aguas y Modelación Hídrica y Ambiental </t>
+    <t>Grupo de Investigación en Modelación y Evaluación de Sistemas Ambientales. GiMESA</t>
+  </si>
+  <si>
+    <t>Gestión Integrada de Recursos Hídricos</t>
   </si>
   <si>
     <t>Grupo de Estudios Ambientales para la Sostenibilidad, la Innovación y el Desarrollo GEASID</t>
   </si>
   <si>
-    <t>Limnología y Recursos Hídricos</t>
-  </si>
-  <si>
-    <t>Grupo de Estudio en Geología, Ecología y Conservación GECO</t>
-  </si>
-  <si>
-    <t>7. Informe técnico: Estructuracion y actualización del Protocolo de Seguimiento y Monitoreo del agua.  Año: 2015, Mes: 6, Idioma: Español, Ciudad: Disponibilidad: No restringido, Número de páginas: 0, Número del contrato: , Institución en la cual prestó el servicio: INSTITUTO DE HIDROLOGIA, METEOROLOGIA Y ESTUDIOS AMBIENTALES - IDEAM</t>
+    <t>Grupo de investigación en Agua y Medio Ambiente - AMA</t>
   </si>
   <si>
     <t>207. Informe técnico: Manual para manejo de datos resultantes del monitoreo de calidad y cantidad de agua (Handeiling databank. Monitoringsgegevens waterkwaliteit en kwantiteit)  Año: 2003, Mes: 1, Idioma: Outros, Ciudad: Lelystad  Disponibilidad: Irrestricta, Número de páginas: 75, Número del contrato: , Institución en la cual prestó el servicio: Rijkswaterstaat 
@@ -57,6 +57,14 @@
   </si>
   <si>
     <t>1. Informe técnico: Realizar monitoreo de la calidad de aire (partículas menores de 10 micras (PM-10) sediméntales y gases SO2 y NO2); muestreo y análisis de la calidad del agua (cloruros, sulfatos, coliformes fecales, totales y mesofilicos), lluvia acida, (pH, acido sulfúrico H2SO4, acido nítrico HNO3 y acido clorhídr  Año: 2010, Mes: 1, Idioma: Español, Ciudad: HATONUEVO  Disponibilidad: No restringido, Número de páginas: 0, Número del contrato: Contarto 072 de 2010, Institución en la cual prestó el servicio: Corporación Autónoma Regional De La Guajira</t>
+  </si>
+  <si>
+    <t>8. Informe técnico: FORTALECIMIENTO CRITERIOS ASOCIADOS A LA APROVISIONAMIENTO DEL AGUA/CALIDAD DEL AGUA PARA LA TOMA DE DECISIONES EN COLOMBIA. PROYECTO 2.1: DISENO DE UNA RED DE MONITOREO DE LA CALIDAD DEL AGUA SUPERFICIAL PARA EL AREA HIDROGRAFICA MAGDALENA-CAUCA  Año: 2016, Mes: 4, Idioma: Español, Ciudad: MEDELLÍN  Disponibilidad: Restringido, Número de páginas: 55, Número del contrato: 81042877, Institución en la cual prestó el servicio: CORPORACIÓN CENTRO DE CIENCIA Y TECNOLOGÍA DE ANTIOQUIA 
+ 9. Informe técnico: FORTALECIMIENTO CRITERIOS ASOCIADOS A LA APROVISIONAMIENTO DEL AGUA/CALIDAD DEL AGUA PARA LA TOMA DE DECISIONES EN COLOMBIA. PROYECTO 2.2: HOJA DE RUTA PARA EL FORTALECIMIENTO DEL MONITOREO DE LA CALIDAD DEL AGUA SUPERFICIAL EN COLOMBIA  Año: 2016, Mes: 4, Idioma: Español, Ciudad: MEDELLÍN  Disponibilidad: Restringido, Número de páginas: 55, Número del contrato: 81042877, Institución en la cual prestó el servicio: CORPORACIÓN CENTRO DE CIENCIA Y TECNOLOGÍA DE ANTIOQUIA</t>
+  </si>
+  <si>
+    <t>8. Informe técnico: Monitoreo quebrada Agua azul-111  Año: 2014, Mes: 8, Idioma: Español, Ciudad: PEREIRA  Disponibilidad: No restringido, Número de páginas: 0, Número del contrato: 111-2014, Institución en la cual prestó el servicio: Compañía de Servicios Públicos Domiciliarios S.A E.S.P 
+ 65. Informe técnico: Monitoreo hidrobiológico y calidad del agua del río Manso-PMA 2012  Año: 2012, Mes: 1, Idioma: Español, Ciudad: MANIZALES  Disponibilidad: Restringido, Número de páginas: 0, Número del contrato: , Institución en la cual prestó el servicio:</t>
   </si>
   <si>
     <t>3. Informe técnico: Diseño, implementación, evaluación, monitoreo y divulgación de sistemas eficientes de gestión del agua en hatos de producción lechera, de la subregión 1 del departamento de Risaralda  Año: 2007, Mes: 12, Idioma: Español, Ciudad: PEREIRA  Disponibilidad: Restringido, Número de páginas: 0, Número del contrato: Resolución Nº 1068 de 2007, Institución en la cual prestó el servicio: Gobernación De Risaralda 
@@ -91,17 +99,13 @@
  69. Informe técnico: Fortalecimiento al monitoreo calidad del agua, del ecosistema de manglar y de los recursos pesqueros de la Ci¿naga Grande de Santa Marta  Año: 2015, Mes: 1, Idioma: Español, Ciudad: Disponibilidad: Restringido, Número de páginas: 0, Número del contrato: , Institución en la cual prestó el servicio:</t>
   </si>
   <si>
-    <t>3. Informe técnico: MONITOREO DE CALIDAD DE AGUAS EN EL EMBALSE Y EN EL RÍO SINÚ DURANTE LA OPERACIÓN DE LA CENTRAL HIDROELÉCTRICA URRÁ I  Año: 2010, Mes: 1, Idioma: Español, Ciudad: Disponibilidad: Restringido, Número de páginas: 0, Número del contrato: Orden de servicio 2010-0074, Institución en la cual prestó el servicio: UNIVERSIDAD PONTIFICIA BOLIVARIANA SECCIONAL MONTERÍA 
- 4. Informe técnico: MONITOREO DE CALIDAD DE AGUAS EN EL EMBALSE Y EN EL RÍO SINÚ DURANTE LA OPERACIÓN DE LA CENTRAL HIDROELÉCTRICA URRÁ I  Año: 2010, Mes: 3, Idioma: Español, Ciudad: Disponibilidad: Restringido, Número de páginas: 0, Número del contrato: PRE 0316-2010, Institución en la cual prestó el servicio: 
- 5. Informe técnico: MONITOREO DE CALIDAD DE AGUAS EN EL EMBALSE Y EN EL RÍO SINÚ DURANTE LA OPERACIÓN DE LA CENTRAL HIDROELÉCTRICA URRÁ I  Año: 2011, Mes: 1, Idioma: Español, Ciudad: Disponibilidad: Restringido, Número de páginas: 0, Número del contrato: Orden de servicio 2011-0084, Institución en la cual prestó el servicio: UNIVERSIDAD PONTIFICIA BOLIVARIANA SECCIONAL MONTERÍA 
- 6. Informe técnico: MONITOREO DE CALIDAD DE AGUAS EN EL EMBALSE Y EN EL RÍO SINÚ DURANTE LA OPERACIÓN DE LA CENTRAL HIDROELÉCTRICA URRÁ I  Año: 2011, Mes: 3, Idioma: Español, Ciudad: Disponibilidad: Restringido, Número de páginas: 0, Número del contrato: PRE 0368-2011, Institución en la cual prestó el servicio: 
- 7. Informe técnico: MONITOREO DE CALIDAD DE AGUAS EN EL EMBALSE Y EN EL RÍO SINÚ DURANTE LA OPERACIÓN DE LA CENTRAL HIDROELÉCTRICA URRÁ I  Año: 2012, Mes: 1, Idioma: Español, Ciudad: Disponibilidad: Restringido, Número de páginas: 0, Número del contrato: Orden de servicio 2012-0109, Institución en la cual prestó el servicio: UNIVERSIDAD PONTIFICIA BOLIVARIANA SECCIONAL MONTERÍA 
- 8. Informe técnico: MONITOREO DE CALIDAD DE AGUAS EN EL EMBALSE Y EN EL RÍO SINÚ DURANTE LA OPERACIÓN DE LA CENTRAL HIDROELÉCTRICA URRÁ I  Año: 2012, Mes: 3, Idioma: Español, Ciudad: MONTERÍA  Disponibilidad: Restringido, Número de páginas: 200, Número del contrato: PRE 0426-2012, Institución en la cual prestó el servicio: UNIVERSIDAD PONTIFICIA BOLIVARIANA SECCIONAL MONTERÍA 
- 9. Informe técnico: MONITOREO DE CALIDAD DE AGUAS EN EL EMBALSE Y EN EL RÍO SINÚ DURANTE LA OPERACIÓN DE LA CENTRAL HIDROELÉCTRICA URRÁ I  Año: 2013, Mes: 3, Idioma: Español, Ciudad: MONTERÍA  Disponibilidad: Restringido, Número de páginas: 200, Número del contrato: Contrato 0491, Institución en la cual prestó el servicio: UNIVERSIDAD PONTIFICIA BOLIVARIANA SECCIONAL MONTERÍA 
- 10. Informe técnico: MONITOREO DE CALIDAD DE AGUAS EN EL EMBALSE Y EN EL RÍO SINÚ DURANTE LA OPERACIÓN DE LA CENTRAL HIDROELÉCTRICA URRÁ I  Año: 2013, Mes: 2, Idioma: Español, Ciudad: Disponibilidad: Restringido, Número de páginas: 0, Número del contrato: Orden de servicio 2013-0130, Institución en la cual prestó el servicio: UNIVERSIDAD PONTIFICIA BOLIVARIANA SECCIONAL MONTERÍA 
- 11. Informe técnico: MONITOREO DE CALIDAD DE AGUAS EN EL EMBALSE Y EN EL RÍO SINÚ DURANTE LA OPERACIÓN DE LA CENTRAL HIDROELÉCTRICA URRÁ I  Año: 2013, Mes: 3, Idioma: Español, Ciudad: Disponibilidad: Restringido, Número de páginas: 0, Número del contrato: PRE 0491-2013, Institución en la cual prestó el servicio: UNIVERSIDAD PONTIFICIA BOLIVARIANA SECCIONAL MONTERÍA 
- 12. Informe técnico: MONITOREO DE CALIDAD DE AGUAS EN EL EMBALSE Y EN EL RÍO SINÚ DURANTE LA OPERACIÓN DE LA CENTRAL HIDROELÉCTRICA URRÁ I  Año: 2014, Mes: 1, Idioma: Español, Ciudad: Disponibilidad: Restringido, Número de páginas: 0, Número del contrato: Orden de servicio 0097-2014, Institución en la cual prestó el servicio: UNIVERSIDAD PONTIFICIA BOLIVARIANA SECCIONAL MONTERÍA 
- 13. Informe técnico: Plan de monitoreo de la calidad del agua en el embalse de la central hidroeléctrica Urrá y el Río Sinú, durante la operación de de la central hidroel¿ctrica Urr¿ I  Año: 2015, Mes: 3, Idioma: Español, Ciudad: Disponibilidad: Restringido, Número de páginas: 0, Número del contrato: 0265, Institución en la cual prestó el servicio: UNIVERSIDAD PONTIFICIA BOLIVARIANA</t>
+    <t>7. Informe técnico: Informe No.2. Propuesta de red de monitoreo de aguas atmosféricas, superficiales y subterráneas y medición de parámetrso de campo del estudio de impacto ambiental del proyecto de aprovechamiento y recursos minerales en los cerros Queresas y Porvenir  Año: 2019, Mes: 2, Idioma: Español, Ciudad: MONTERÍA  Disponibilidad: Restringido, Número de páginas: 38, Número del contrato: 4541319879, Institución en la cual prestó el servicio: Cerro Matoso S.A 
+ 26. Informe técnico: Informe N° 2. Propuesta de Red de Monitoreo de Aguas Atmosféricas, Superficiales y Subterráneas y Medición de Parámetros de Campo del Estudio de Impacto Ambiental del Proyecto Aprovechamiento de Recursos Minerales en los Cerros Queresas y Porvenir  Año: 2019, Mes: 2, Idioma: Español, Ciudad: Disponibilidad: Restringido, Número de páginas: 0, Número del contrato: 4541319879, Institución en la cual prestó el servicio: Cerro Matoso S.A 
+ 39. Informe técnico: Informe N° 2. Propuesta de Red de Monitoreo de Aguas Atmosféricas, Superficiales y Subterráneas y Medición de Parámetros de Campo del Estudio de Impacto Ambiental del Proyecto Aprovechamiento de Recursos Minerales en los Cerros Queresas y Porvenir  Año: 2019, Mes: 2, Idioma: Español, Ciudad: MONTERÍA  Disponibilidad: Restringido, Número de páginas: 38, Número del contrato: 4541319879, Institución en la cual prestó el servicio: Cerro Matoso S.A</t>
+  </si>
+  <si>
+    <t>11. Informe técnico: Monitoreo de las Alianzas para el Aprendizaje del proyecto usos múltiples del agua  Año: 2006, Mes: 1, Idioma: Español, Ciudad: CALI  Disponibilidad: Irrestricta, Número de páginas: 41, Número del contrato: , Institución en la cual prestó el servicio: Challenge Program On Water And Food 
+ 29. Informe técnico: Monitoreo de las Alianzas para el Aprendizaje del proyecto Usos Múltiples del Agua  Año: 2006, Mes: 1, Idioma: Español, Ciudad: Disponibilidad: No restringido, Número de páginas: 41, Número del contrato: , Institución en la cual prestó el servicio:</t>
   </si>
   <si>
     <t>33. Informe técnico: Determinación de los índices de calidad y contaminación de agua ICA's e ICO's de la primera campaña de monitoreo de las quebradas la Gómez, Santos Gutiérrez, Pescado, Islitas, Caño Peruétano y Ciénaga de Paredes, en los municipio de Sabana de Torres y Puerto Wilches, Santander.  Año: 2015, Mes: 6, Idioma: Español, Ciudad: SAN GIL  Disponibilidad: Restringido, Número de páginas: 0, Número del contrato: Convenio # 5219582, Institución en la cual prestó el servicio: ECOPETROL S. A. 
@@ -110,16 +114,9 @@
  77. Informe técnico: Determinación de los índices de calidad y contaminación de agua ICA's e ICO's de la tercera campaña de monitoreo de las quebradas la Gómez, Santos Gutiérrez, Pescado, Islitas, Caño Peruétano y Ciénaga de Paredes, en los municipio de Sabana de Torres y Puerto Wilches, Santander.  Año: 2016, Mes: 1, Idioma: Español, Ciudad: SAN GIL  Disponibilidad: Restringido, Número de páginas: 0, Número del contrato: Convenio # 5219582, Institución en la cual prestó el servicio: ECOPETROL S. A.</t>
   </si>
   <si>
-    <t>1. Informe técnico: Monitoreo Limnológico e hidrobiológico embalse Amaní-Río La Miel y afluentes principales en el sector aguas abajo de la presa de la Central Hidroeléctrica Miel I - 2012  Año: 2010, Mes: 1, Idioma: Español, Ciudad: RIONEGRO  Disponibilidad: Restringido, Número de páginas: 0, Número del contrato: 46-3346, Institución en la cual prestó el servicio: UNIVERSIDAD CATOLICA DE ORIENTE 
- 4. Informe técnico: Seguimiento y monitoreo semestral de las especies de peces migratorios y rutas de migración en el río Sogamoso aguas abajo de la presa Latora  Año: 2018, Mes: 4, Idioma: Español, Ciudad: MEDELLÍN  Disponibilidad: Restringido, Número de páginas: 0, Número del contrato: 41/971, Institución en la cual prestó el servicio: ISAGEN S.A. ESP 
- 6. Informe técnico: Monitoreo trimestral de variables físicas, químicas e hidrobiológicas del río Sogamoso, del sistema cenagoso El Llanito y el río Magdalena, Monitoreo trimestral y nictemeral de oxígeno disuelto, DBO, H2S, y serie de sólidos (ST, SST y SDT) en el río Sogamoso aguas abajo de la presa Latora y Monitore  Año: 2018, Mes: 4, Idioma: Español, Ciudad: Disponibilidad: Restringido, Número de páginas: 0, Número del contrato: 41/971, Institución en la cual prestó el servicio: ISAGEN S.A. ESP 
- 28. Informe técnico: Informe Zooplancton-Monitoreo limnológico e hidrobiológico embalse Amaní-Río La Miel y afluentes principales en el sector aguas abajo de la presa de la central Hidroeléctrica Miel I - 2012  Año: 2010, Mes: 1, Idioma: Español, Ciudad: MEDELLÍN  Disponibilidad: Restringido, Número de páginas: 0, Número del contrato: 46-3346, Institución en la cual prestó el servicio: ISAGEN S.A. ESP 
- 30. Informe técnico: Informe zooplancton-Monitoreo y seguimiento hidrobiológico del trasvase del río Guarinó y Monitoreo limnológico e hidrobiológico embalse Amaní - río La Miel y afluentes principales en el sector aguas abajo de la presa de la Central Hidroeléctrica Miel I - 2013  Año: 2011, Mes: 1, Idioma: Español, Ciudad: MEDELLÍN  Disponibilidad: Restringido, Número de páginas: 0, Número del contrato: 46-3643, Institución en la cual prestó el servicio: ISAGEN S.A. ESP 
- 37. Informe técnico: . Monitoreo trimestral de variables físicas, químicas e hidrobiológicas del río Sogamoso, del sistema cenagoso El Llanito y el río Magdalena, Monitoreo trimestral y nictemeral de oxígeno disuelto, DBO, H2S, y serie de sólidos (ST, SST y SDT) en el río Sogamoso aguas abajo de la presa Latora y Monito  Año: 2018, Mes: 4, Idioma: Español, Ciudad: Disponibilidad: Restringido, Número de páginas: 0, Número del contrato: 41/971, Institución en la cual prestó el servicio: UNIVERSIDAD CATOLICA DE ORIENTE 
- 42. Informe técnico: MONITOREO LIMNOLÓGICO E HIDROBIOLÓGICO EMBALSE AMANÍ - RÍO LA MIEL Y AFLUENTES PRINCIPALES EN EL SECTOR AGUAS ABAJO DE LA PRESA DE LA CENTRAL HIDROELÉCTRICA MIEL I - PMA 2014 INFORME FINAL  Año: 2015, Mes: 2, Idioma: Español, Ciudad: MEDELLÍN  Disponibilidad: Restringido, Número de páginas: 290, Número del contrato: CONTRATO 41/248, Institución en la cual prestó el servicio: ISAGEN S.A. ESP</t>
-  </si>
-  <si>
-    <t>5. Informe técnico: LEVANTAMIENTO DE LA LÍNEA BASE PARA EL MONITOREO DE LA CALIDAD DEL AGUA Y DE ALGUNOS GRUPOS DE FAUNA EN LA MICROCUENCA ALTA DEL RÍO SAN PEDRO, ÁREA DE AMORTIGUACIÓN DEL PNN ALTO FRAGUA INDIWASI, SAN JOSÉ DEL FRAGUA, CAQUETÁ  Año: 2014, Mes: 7, Idioma: Español, Ciudad: Disponibilidad: Restringido, Número de páginas: 105, Número del contrato: , Institución en la cual prestó el servicio: Parque Nacional Natural Alto Fragua Indi Wasi</t>
+    <t>78. Informe técnico: FORTALECIMIENTO CRITERIOS ASOCIADOS A LA APROVISIONAMIENTO DEL AGUA/CALIDAD DEL AGUA PARA LA TOMA DE DECISIONES EN COLOMBIA. PROYECTO 2.1: DISEÑO DE UNA RED DE MONITOREO DE LA CALIDAD DEL AGUA SUPERFICIAL PARA EL AREA HIDROGRAFICA MAGDALENA - CAUCA  Año: 2016, Mes: 4, Idioma: Español, Ciudad: MEDELLÍN  Disponibilidad: Restringido, Número de páginas: 55, Número del contrato: 81042877, Institución en la cual prestó el servicio: CORPORACIÓN CENTRO DE CIENCIA Y TECNOLOGÍA DE ANTIOQUIA 
+ 79. Informe técnico: FORTALECIMIENTO CRITERIOS ASOCIADOS A LA APROVISIONAMIENTO DEL AGUA/CALIDAD DEL AGUA PARA LA TOMA DE DECISIONES EN COLOMBIA. PROYECTO 2.2: HOJA DE RUTA PARA EL FORTALECIMIENTO DEL MONITOREO DE LA CALIDAD DEL AGUA SUPERFICIAL EN COLOMBIA  Año: 2016, Mes: 4, Idioma: Español, Ciudad: MEDELLÍN  Disponibilidad: Restringido, Número de páginas: 55, Número del contrato: 81042877, Institución en la cual prestó el servicio: CORPORACIÓN CENTRO DE CIENCIA Y TECNOLOGÍA DE ANTIOQUIA 
+ 94. Informe técnico: FORTALECIMIENTO CRITERIOS ASOCIADOS A LA APROVISIONAMIENTO DEL AGUA/CALIDAD DEL AGUA PARA LA TOMA DE DECISIONES EN COLOMBIA. PROYECTO 2.2: HOJA DE RUTA PARA EL FORTALECIMIENTO DEL MONITOREO DE LA CALIDAD DEL AGUA SUPERFICIAL EN COLOMBIA  Año: 2016, Mes: 4, Idioma: Español, Ciudad: MEDELLÍN  Disponibilidad: Restringido, Número de páginas: 55, Número del contrato: 81042877, Institución en la cual prestó el servicio: CORPORACIÓN CENTRO DE CIENCIA Y TECNOLOGÍA DE ANTIOQUIA</t>
   </si>
 </sst>
 </file>
@@ -477,7 +474,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -496,7 +493,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -504,7 +501,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -512,7 +509,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -520,7 +517,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -528,7 +525,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -536,7 +533,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -544,7 +541,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -552,7 +549,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -560,7 +557,15 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
